--- a/Model_Param_Tracking.xlsx
+++ b/Model_Param_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotte/Desktop/Dissertation_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C24910A-42E8-B640-988D-1976760746AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A775BC8-F713-D344-B9FB-088552282622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{93C3F197-1E59-6347-8491-F25656B50BA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{93C3F197-1E59-6347-8491-F25656B50BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Param_Tracking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>heads_gat</t>
   </si>
@@ -243,6 +243,48 @@
   </si>
   <si>
     <t>lambda_mean_align</t>
+  </si>
+  <si>
+    <t>20250912_151512</t>
+  </si>
+  <si>
+    <t>Less var, more random spiking</t>
+  </si>
+  <si>
+    <t>20250812_175431</t>
+  </si>
+  <si>
+    <t>Closer Corr (than even best), higher var</t>
+  </si>
+  <si>
+    <t>20250812_191550</t>
+  </si>
+  <si>
+    <t>Lambda mean does not work</t>
+  </si>
+  <si>
+    <t>20250813_</t>
+  </si>
+  <si>
+    <t>20250813_002441</t>
+  </si>
+  <si>
+    <t>20250813_011021</t>
+  </si>
+  <si>
+    <t>20250813_123507</t>
+  </si>
+  <si>
+    <t>Basically purely cyclical</t>
+  </si>
+  <si>
+    <t>20250813_124314</t>
+  </si>
+  <si>
+    <t>20250813_124436</t>
+  </si>
+  <si>
+    <t>High Var</t>
   </si>
 </sst>
 </file>
@@ -857,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BF201A-EBF7-3F4F-9E79-53BC4C3A4D14}">
   <dimension ref="B3:Z311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2640,9 @@
       <c r="C27" s="18">
         <v>777885</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
@@ -2656,171 +2700,502 @@
       <c r="W27" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="X27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="18"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="8"/>
+      <c r="C28" s="18">
+        <v>777938</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>64</v>
+      </c>
+      <c r="I28" s="7">
+        <v>64</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="P28" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>30</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="7">
+        <v>8</v>
+      </c>
+      <c r="T28" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U28" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V28" s="9">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="18"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="8"/>
+      <c r="C29" s="18">
+        <v>777952</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="7">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>64</v>
+      </c>
+      <c r="I29" s="7">
+        <v>64</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="P29" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>30</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="7">
+        <v>8</v>
+      </c>
+      <c r="T29" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U29" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="18"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="8"/>
+      <c r="C30" s="18">
+        <v>778024</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="7">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="7">
+        <v>64</v>
+      </c>
+      <c r="I30" s="7">
+        <v>64</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="P30" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>30</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="7">
+        <v>8</v>
+      </c>
+      <c r="T30" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U30" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="18"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="8"/>
+      <c r="C31" s="18">
+        <v>778028</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H31" s="7">
+        <v>64</v>
+      </c>
+      <c r="I31" s="7">
+        <v>64</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="P31" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>30</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="7">
+        <v>8</v>
+      </c>
+      <c r="T31" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U31" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32" spans="2:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="18"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="8"/>
-    </row>
-    <row r="33" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="18"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="18"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="8"/>
-    </row>
-    <row r="35" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="18"/>
-      <c r="D35" s="5"/>
+      <c r="C32" s="18">
+        <v>778342</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>64</v>
+      </c>
+      <c r="I32" s="7">
+        <v>64</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="O32" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="P32" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>30</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="7">
+        <v>8</v>
+      </c>
+      <c r="T32" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U32" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V32" s="9">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="18">
+        <v>778349</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="7">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="7">
+        <v>64</v>
+      </c>
+      <c r="I33" s="7">
+        <v>64</v>
+      </c>
+      <c r="J33" s="7">
+        <v>2</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="P33" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>30</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S33" s="7">
+        <v>8</v>
+      </c>
+      <c r="T33" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U33" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V33" s="9">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="18">
+        <v>778350</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="7">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="7">
+        <v>64</v>
+      </c>
+      <c r="I34" s="7">
+        <v>64</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O34" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="P34" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>30</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="S34" s="7">
+        <v>8</v>
+      </c>
+      <c r="T34" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="U34" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="V34" s="9">
+        <v>1</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="18">
+        <v>778537</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2841,7 +3216,7 @@
       <c r="V35" s="9"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="18"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2864,7 +3239,7 @@
       <c r="V36" s="9"/>
       <c r="W36" s="7"/>
     </row>
-    <row r="37" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="18"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2887,7 +3262,7 @@
       <c r="V37" s="9"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="18"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2910,7 +3285,7 @@
       <c r="V38" s="9"/>
       <c r="W38" s="7"/>
     </row>
-    <row r="39" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="18"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2933,7 +3308,7 @@
       <c r="V39" s="9"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="40" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="18"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2956,7 +3331,7 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
     </row>
-    <row r="41" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="18"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2979,7 +3354,7 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
     </row>
-    <row r="42" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="18"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3002,7 +3377,7 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
     </row>
-    <row r="43" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="18"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3025,7 +3400,7 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
     </row>
-    <row r="44" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="18"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3048,7 +3423,7 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
     </row>
-    <row r="45" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="18"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3071,7 +3446,7 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
     </row>
-    <row r="46" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="18"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3094,7 +3469,7 @@
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
     </row>
-    <row r="47" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="18"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3117,7 +3492,7 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
     </row>
-    <row r="48" spans="3:23" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:25" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="18"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>

--- a/Model_Param_Tracking.xlsx
+++ b/Model_Param_Tracking.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotte/Desktop/Dissertation_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A775BC8-F713-D344-B9FB-088552282622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{41EA3D7E-79DE-D746-B70E-E95EE026C274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{93C3F197-1E59-6347-8491-F25656B50BA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{93C3F197-1E59-6347-8491-F25656B50BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Param_Tracking" sheetId="1" r:id="rId1"/>
+    <sheet name="All Stations Metrics Tracking" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
   <si>
     <t>heads_gat</t>
   </si>
@@ -285,6 +286,174 @@
   </si>
   <si>
     <t>High Var</t>
+  </si>
+  <si>
+    <t>Station Name</t>
+  </si>
+  <si>
+    <t>Run ID</t>
+  </si>
+  <si>
+    <t>Run Timecode</t>
+  </si>
+  <si>
+    <t>run_GAT</t>
+  </si>
+  <si>
+    <t>run_LSTM</t>
+  </si>
+  <si>
+    <t>Node ID</t>
+  </si>
+  <si>
+    <t>ainstable</t>
+  </si>
+  <si>
+    <t>Val Station 1</t>
+  </si>
+  <si>
+    <t>Val Station 2</t>
+  </si>
+  <si>
+    <t>castle_carrock</t>
+  </si>
+  <si>
+    <t>skirwith</t>
+  </si>
+  <si>
+    <t>RMAE</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>KGE</t>
+  </si>
+  <si>
+    <t>GAT only</t>
+  </si>
+  <si>
+    <t>GAT + LSTM + Sigmoid Gate</t>
+  </si>
+  <si>
+    <t>feature/graph-conditioned-film</t>
+  </si>
+  <si>
+    <t>feature/gat-lstm-parallel-attention-new</t>
+  </si>
+  <si>
+    <t>Git Branch</t>
+  </si>
+  <si>
+    <t>LSTM only (No FiLM)</t>
+  </si>
+  <si>
+    <t>baronwood</t>
+  </si>
+  <si>
+    <t>bgs_ev2</t>
+  </si>
+  <si>
+    <t>cliburn_town_bridge_2</t>
+  </si>
+  <si>
+    <t>coupland</t>
+  </si>
+  <si>
+    <t>croglin</t>
+  </si>
+  <si>
+    <t>east_brownrigg</t>
+  </si>
+  <si>
+    <t>great_musgrave</t>
+  </si>
+  <si>
+    <t>hilton</t>
+  </si>
+  <si>
+    <t>longtown</t>
+  </si>
+  <si>
+    <t>penrith_north</t>
+  </si>
+  <si>
+    <t>renwick</t>
+  </si>
+  <si>
+    <t>scaleby</t>
+  </si>
+  <si>
+    <t>lstm_enabled</t>
+  </si>
+  <si>
+    <t>gat_enabled</t>
+  </si>
+  <si>
+    <t>film_mode</t>
+  </si>
+  <si>
+    <t>fusion_mode</t>
+  </si>
+  <si>
+    <t>film_graph_edges</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NODE</t>
+  </si>
+  <si>
+    <t>GRAPH</t>
+  </si>
+  <si>
+    <t>GAT + LSTM + GAT Conditioned FiLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Only </t>
+  </si>
+  <si>
+    <t>LSTM_input</t>
+  </si>
+  <si>
+    <t>GAT_input</t>
+  </si>
+  <si>
+    <t>Static and Temporal</t>
+  </si>
+  <si>
+    <t>Static Only</t>
+  </si>
+  <si>
+    <t>GAT + LSTM + Node-wise FiLM + Sigmoid Gate</t>
+  </si>
+  <si>
+    <t>Performance Notes</t>
+  </si>
+  <si>
+    <t>GAT + LSTM with Node-wise FiLM + Sigmoid Gate</t>
+  </si>
+  <si>
+    <t>Baseline: MLP</t>
+  </si>
+  <si>
+    <t>Baseline: Fourier (Seasonal climatology)</t>
+  </si>
+  <si>
+    <t>SIGMOID GATE</t>
+  </si>
+  <si>
+    <t>GAT with Temporal Inputs (non Recurrent)</t>
+  </si>
+  <si>
+    <t>Ablations</t>
   </si>
 </sst>
 </file>
@@ -295,7 +464,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,8 +519,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +563,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -400,11 +599,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,6 +769,66 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BF201A-EBF7-3F4F-9E79-53BC4C3A4D14}">
   <dimension ref="B3:Z311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9545,4 +9819,1912 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F69EA-4BBB-414D-9F90-38D180B1E811}">
+  <dimension ref="A2:AC72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="54"/>
+    <col min="2" max="2" width="19.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="19.5" style="54" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="54" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="54" customWidth="1"/>
+    <col min="9" max="9" width="40" style="54" customWidth="1"/>
+    <col min="10" max="10" width="34" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="54" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="55" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.6640625" style="55" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" style="55" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="54" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="0" style="64" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5" style="54" customWidth="1"/>
+    <col min="23" max="27" width="13.33203125" style="54" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" style="54" customWidth="1"/>
+    <col min="29" max="29" width="52.33203125" style="64" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" s="53" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:29" s="64" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1335</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="I4" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AC4" s="65"/>
+    </row>
+    <row r="5" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:29" s="70" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="69"/>
+      <c r="I6" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AC6" s="69"/>
+    </row>
+    <row r="7" spans="1:29" s="64" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="66">
+        <v>1335</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="I7" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AC7" s="65"/>
+    </row>
+    <row r="8" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="I9" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AC9" s="65"/>
+    </row>
+    <row r="10" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="I10" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AC10" s="65"/>
+    </row>
+    <row r="11" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="51"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="I11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AC11" s="65"/>
+    </row>
+    <row r="12" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="I12" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AC12" s="65"/>
+    </row>
+    <row r="13" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="I13" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AC13" s="65"/>
+    </row>
+    <row r="14" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="60">
+        <v>1335</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="I14" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AC14" s="65"/>
+    </row>
+    <row r="15" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="T16" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AC16" s="65"/>
+    </row>
+    <row r="17" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="T17" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AC17" s="65"/>
+    </row>
+    <row r="18" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="T18" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AC18" s="65"/>
+    </row>
+    <row r="19" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="T20" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AC20" s="65"/>
+    </row>
+    <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="T21" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AC21" s="65"/>
+    </row>
+    <row r="22" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="T22" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AC22" s="65"/>
+    </row>
+    <row r="23" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="T24" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AC24" s="65"/>
+    </row>
+    <row r="25" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="T25" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AC25" s="65"/>
+    </row>
+    <row r="26" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="T26" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AC26" s="65"/>
+    </row>
+    <row r="27" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="T28" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AC28" s="65"/>
+    </row>
+    <row r="29" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="T29" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AC29" s="65"/>
+    </row>
+    <row r="30" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="T30" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AC30" s="65"/>
+    </row>
+    <row r="31" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="T32" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AC32" s="65"/>
+    </row>
+    <row r="33" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="T33" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AC33" s="65"/>
+    </row>
+    <row r="34" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="T34" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AC34" s="65"/>
+    </row>
+    <row r="35" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="T36" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AC36" s="65"/>
+    </row>
+    <row r="37" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="T37" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AC37" s="65"/>
+    </row>
+    <row r="38" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="T38" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AC38" s="65"/>
+    </row>
+    <row r="39" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="T40" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U40" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AC40" s="65"/>
+    </row>
+    <row r="41" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="T41" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AC41" s="65"/>
+    </row>
+    <row r="42" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="T42" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AC42" s="65"/>
+    </row>
+    <row r="43" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="T44" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AC44" s="65"/>
+    </row>
+    <row r="45" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="T45" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AC45" s="65"/>
+    </row>
+    <row r="46" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="T46" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AC46" s="65"/>
+    </row>
+    <row r="47" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="T48" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AC48" s="65"/>
+    </row>
+    <row r="49" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="T49" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AC49" s="65"/>
+    </row>
+    <row r="50" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="60"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="T50" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AC50" s="65"/>
+    </row>
+    <row r="51" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="T52" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AC52" s="65"/>
+    </row>
+    <row r="53" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="T53" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AC53" s="65"/>
+    </row>
+    <row r="54" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="60"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="T54" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AC54" s="65"/>
+    </row>
+    <row r="55" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="T56" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="56"/>
+      <c r="AC56" s="65"/>
+    </row>
+    <row r="57" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="T57" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="56"/>
+      <c r="AC57" s="65"/>
+    </row>
+    <row r="58" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="T58" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U58" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AC58" s="65"/>
+    </row>
+    <row r="59" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="T60" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
+      <c r="AA60" s="56"/>
+      <c r="AC60" s="65"/>
+    </row>
+    <row r="61" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="T61" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
+      <c r="AA61" s="56"/>
+      <c r="AC61" s="65"/>
+    </row>
+    <row r="62" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="T62" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
+      <c r="AC62" s="65"/>
+    </row>
+    <row r="63" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="T64" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U64" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" s="56"/>
+      <c r="X64" s="56"/>
+      <c r="Y64" s="56"/>
+      <c r="Z64" s="56"/>
+      <c r="AA64" s="56"/>
+      <c r="AC64" s="65"/>
+    </row>
+    <row r="65" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="T65" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AC65" s="65"/>
+    </row>
+    <row r="66" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="T66" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U66" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AC66" s="65"/>
+    </row>
+    <row r="67" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="T68" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U68" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="56"/>
+      <c r="AA68" s="56"/>
+      <c r="AC68" s="65"/>
+    </row>
+    <row r="69" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="T69" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
+      <c r="AA69" s="56"/>
+      <c r="AC69" s="65"/>
+    </row>
+    <row r="70" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="T70" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U70" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AC70" s="65"/>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="S71" s="61"/>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="S72" s="61"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model_Param_Tracking.xlsx
+++ b/Model_Param_Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotte/Desktop/Dissertation_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{41EA3D7E-79DE-D746-B70E-E95EE026C274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE93B1B-943B-2C43-85C4-F1F36C614579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{93C3F197-1E59-6347-8491-F25656B50BA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Model_Param_Tracking" sheetId="1" r:id="rId1"/>
     <sheet name="All Stations Metrics Tracking" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +36,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3DAF151A-E093-0346-874E-83A634A97B43}</author>
+    <author>tc={E52A1DA9-C407-4543-8610-73360C48387F}</author>
+    <author>tc={7FC3498D-1973-524D-98F3-181CFC6F8D6B}</author>
+    <author>tc={9A9EE926-EE81-9744-984E-AB25A9F8875C}</author>
+    <author>tc={57F92A91-CEF2-CC44-8322-C536895E4E5A}</author>
+    <author>tc={47CF2754-46BB-D247-8C12-017BCD2E2280}</author>
+    <author>tc={0A2AD09F-B2DC-7943-BE1B-60A8F25E9347}</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{3DAF151A-E093-0346-874E-83A634A97B43}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This must ALSO apply to scalers!! Rerun to there before testing.</t>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="1" shapeId="0" xr:uid="{E52A1DA9-C407-4543-8610-73360C48387F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    shows what linear exogenous mapping can do; quantifies the nonlinearity gained.</t>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{7FC3498D-1973-524D-98F3-181CFC6F8D6B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    tests whether a simple nonlinear map already captures most skill; a very fair “graphless deep” comparator.</t>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="3" shapeId="0" xr:uid="{9A9EE926-EE81-9744-984E-AB25A9F8875C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    First Run: 20250814-110329 (streamflow missing in config temporal list)</t>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="4" shapeId="0" xr:uid="{57F92A91-CEF2-CC44-8322-C536895E4E5A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    First Run: 780343</t>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="5" shapeId="0" xr:uid="{47CF2754-46BB-D247-8C12-017BCD2E2280}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    First Run: 20250818-114431</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="6" shapeId="0" xr:uid="{0A2AD09F-B2DC-7943-BE1B-60A8F25E9347}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Don't use for validation due to masking</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="180">
   <si>
     <t>heads_gat</t>
   </si>
@@ -291,9 +363,6 @@
     <t>Station Name</t>
   </si>
   <si>
-    <t>Run ID</t>
-  </si>
-  <si>
     <t>Run Timecode</t>
   </si>
   <si>
@@ -321,9 +390,6 @@
     <t>skirwith</t>
   </si>
   <si>
-    <t>RMAE</t>
-  </si>
-  <si>
     <t>R^2</t>
   </si>
   <si>
@@ -336,15 +402,6 @@
     <t>GAT only</t>
   </si>
   <si>
-    <t>GAT + LSTM + Sigmoid Gate</t>
-  </si>
-  <si>
-    <t>feature/graph-conditioned-film</t>
-  </si>
-  <si>
-    <t>feature/gat-lstm-parallel-attention-new</t>
-  </si>
-  <si>
     <t>Git Branch</t>
   </si>
   <si>
@@ -378,9 +435,6 @@
     <t>longtown</t>
   </si>
   <si>
-    <t>penrith_north</t>
-  </si>
-  <si>
     <t>renwick</t>
   </si>
   <si>
@@ -396,75 +450,217 @@
     <t>film_mode</t>
   </si>
   <si>
-    <t>fusion_mode</t>
-  </si>
-  <si>
-    <t>film_graph_edges</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>NODE</t>
   </si>
   <si>
-    <t>GRAPH</t>
-  </si>
-  <si>
-    <t>GAT + LSTM + GAT Conditioned FiLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal Only </t>
-  </si>
-  <si>
     <t>LSTM_input</t>
   </si>
   <si>
     <t>GAT_input</t>
   </si>
   <si>
-    <t>Static and Temporal</t>
-  </si>
-  <si>
-    <t>Static Only</t>
-  </si>
-  <si>
-    <t>GAT + LSTM + Node-wise FiLM + Sigmoid Gate</t>
-  </si>
-  <si>
     <t>Performance Notes</t>
   </si>
   <si>
-    <t>GAT + LSTM with Node-wise FiLM + Sigmoid Gate</t>
-  </si>
-  <si>
-    <t>Baseline: MLP</t>
-  </si>
-  <si>
-    <t>Baseline: Fourier (Seasonal climatology)</t>
-  </si>
-  <si>
-    <t>SIGMOID GATE</t>
-  </si>
-  <si>
-    <t>GAT with Temporal Inputs (non Recurrent)</t>
-  </si>
-  <si>
     <t>Ablations</t>
+  </si>
+  <si>
+    <t>Ridge (linear) on statics∣∣temporals</t>
+  </si>
+  <si>
+    <t>Global MLP (2–3 layers) on statics∣∣temporals</t>
+  </si>
+  <si>
+    <t>LSTM + FiLM Conditioner</t>
+  </si>
+  <si>
+    <t>Static &amp; Temporal</t>
+  </si>
+  <si>
+    <t>GAT (Residuals) + LSTM + FiLM Conditioner</t>
+  </si>
+  <si>
+    <t>GAT + LSTM + Fusion Gate</t>
+  </si>
+  <si>
+    <t>Temporal Only</t>
+  </si>
+  <si>
+    <t>feature/additive-spatial-residual</t>
+  </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>Datum (mAOD)</t>
+  </si>
+  <si>
+    <t>LSTM Only</t>
+  </si>
+  <si>
+    <t>PyG Run ID</t>
+  </si>
+  <si>
+    <t>mean_gwl</t>
+  </si>
+  <si>
+    <t>MAE (mAOD)</t>
+  </si>
+  <si>
+    <t>RMSE (mAOD)</t>
+  </si>
+  <si>
+    <t>Targets:</t>
+  </si>
+  <si>
+    <t>0.25- 0.60</t>
+  </si>
+  <si>
+    <t>0.20-0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>20250818_173942</t>
+  </si>
+  <si>
+    <t>20250814-110329</t>
+  </si>
+  <si>
+    <t>SLURM ID</t>
+  </si>
+  <si>
+    <t>20250818-175905</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>TESTED</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>20250818_180550</t>
+  </si>
+  <si>
+    <t>20250818-181644</t>
+  </si>
+  <si>
+    <t>Average LSTM</t>
+  </si>
+  <si>
+    <t>Average GAT</t>
+  </si>
+  <si>
+    <t>Max LSTM</t>
+  </si>
+  <si>
+    <t>Max GAT</t>
+  </si>
+  <si>
+    <t>Min LSTM</t>
+  </si>
+  <si>
+    <t>Min GAT</t>
+  </si>
+  <si>
+    <t>Component Contribution</t>
+  </si>
+  <si>
+    <t>20250818_184745</t>
+  </si>
+  <si>
+    <t>20250818-185912</t>
+  </si>
+  <si>
+    <t>20250818_190654</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>20250818-193354</t>
+  </si>
+  <si>
+    <t>20250818_201159</t>
+  </si>
+  <si>
+    <t>NOT STARTED</t>
+  </si>
+  <si>
+    <t>20250818_200206</t>
+  </si>
+  <si>
+    <t>20250818_202143</t>
+  </si>
+  <si>
+    <t>20250818_202740</t>
+  </si>
+  <si>
+    <t>20250818_203906</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>20250818_205012</t>
+  </si>
+  <si>
+    <t>20250818-212500</t>
+  </si>
+  <si>
+    <t>20250818_212241</t>
+  </si>
+  <si>
+    <t>20250818_213009</t>
+  </si>
+  <si>
+    <t>20250818_214321</t>
+  </si>
+  <si>
+    <t>Mostly great. Slightly missed peaks. Slight drift correction (0.2).</t>
+  </si>
+  <si>
+    <t>Evaluation Metrics</t>
+  </si>
+  <si>
+    <t>Model Setup</t>
+  </si>
+  <si>
+    <t>Model Run</t>
+  </si>
+  <si>
+    <t>Station Run Information</t>
+  </si>
+  <si>
+    <t>20250818_215159</t>
+  </si>
+  <si>
+    <t>20250818-222212</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Epochs (x/250)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,8 +733,41 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +804,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -614,11 +867,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,7 +1022,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,7 +1061,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,7 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +1106,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -740,7 +1118,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,22 +1130,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,17 +1169,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,23 +1193,382 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF7B966"/>
       <color rgb="FFFADE7A"/>
       <color rgb="FFD4BC92"/>
       <color rgb="FFB08A5A"/>
@@ -852,6 +1583,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Charlotte Wayment" id="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" userId="S::charlotte.wayment@wolfwyse.com::e9d7b3ad-cfeb-49c3-be4d-3b1ba0ba35b4" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,6 +1906,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I3" dT="2025-08-18T10:53:45.02" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{3DAF151A-E093-0346-874E-83A634A97B43}">
+    <text>This must ALSO apply to scalers!! Rerun to there before testing.</text>
+  </threadedComment>
+  <threadedComment ref="P7" dT="2025-08-17T22:41:04.49" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{E52A1DA9-C407-4543-8610-73360C48387F}">
+    <text>shows what linear exogenous mapping can do; quantifies the nonlinearity gained.</text>
+  </threadedComment>
+  <threadedComment ref="P8" dT="2025-08-17T22:41:37.85" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{7FC3498D-1973-524D-98F3-181CFC6F8D6B}">
+    <text>tests whether a simple nonlinear map already captures most skill; a very fair “graphless deep” comparator.</text>
+  </threadedComment>
+  <threadedComment ref="I13" dT="2025-08-18T20:48:30.23" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{9A9EE926-EE81-9744-984E-AB25A9F8875C}">
+    <text>First Run: 20250814-110329 (streamflow missing in config temporal list)</text>
+  </threadedComment>
+  <threadedComment ref="J13" dT="2025-08-18T20:48:10.56" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{57F92A91-CEF2-CC44-8322-C536895E4E5A}">
+    <text>First Run: 780343</text>
+  </threadedComment>
+  <threadedComment ref="K13" dT="2025-08-18T20:48:01.71" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{47CF2754-46BB-D247-8C12-017BCD2E2280}">
+    <text>First Run: 20250818-114431</text>
+  </threadedComment>
+  <threadedComment ref="B19" dT="2025-08-18T10:50:54.00" personId="{A3CC201A-A5D3-BB4A-A295-3C9302E735A6}" id="{0A2AD09F-B2DC-7943-BE1B-60A8F25E9347}">
+    <text>Don't use for validation due to masking</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BF201A-EBF7-3F4F-9E79-53BC4C3A4D14}">
   <dimension ref="B3:Z311"/>
@@ -9822,1909 +10585,3826 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F69EA-4BBB-414D-9F90-38D180B1E811}">
-  <dimension ref="A2:AC72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F69EA-4BBB-414D-9F90-38D180B1E811}">
+  <dimension ref="A2:AO71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="54"/>
-    <col min="2" max="2" width="19.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="19.5" style="54" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="54" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="54" customWidth="1"/>
-    <col min="9" max="9" width="40" style="54" customWidth="1"/>
-    <col min="10" max="10" width="34" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="54" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="55" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.6640625" style="55" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="54" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="0" style="64" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="2.5" style="54" customWidth="1"/>
-    <col min="23" max="27" width="13.33203125" style="54" customWidth="1"/>
-    <col min="28" max="28" width="2.33203125" style="54" customWidth="1"/>
-    <col min="29" max="29" width="52.33203125" style="64" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="54"/>
+    <col min="2" max="2" width="21.33203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="12" style="67" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="67" customWidth="1"/>
+    <col min="5" max="5" width="22" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="55" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="136" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="55" customWidth="1"/>
+    <col min="15" max="15" width="2.5" style="54" customWidth="1"/>
+    <col min="16" max="16" width="40" style="54" customWidth="1"/>
+    <col min="17" max="17" width="34" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="54" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="55" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="2.5" style="54" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="0" style="62" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="2.5" style="54" customWidth="1"/>
+    <col min="28" max="32" width="13.33203125" style="54" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" style="96" customWidth="1"/>
+    <col min="34" max="39" width="13.33203125" style="55" customWidth="1"/>
+    <col min="40" max="40" width="2.33203125" style="54" customWidth="1"/>
+    <col min="41" max="41" width="52.33203125" style="126" customWidth="1"/>
+    <col min="42" max="16384" width="10.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" s="53" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="1:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="P2" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="105"/>
+      <c r="S2" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="AB2" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AH2" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+    </row>
+    <row r="3" spans="1:41" s="53" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C3" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC3" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ3" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK3" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL3" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO3" s="127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="53" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="J4" s="84"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AO4" s="128"/>
+    </row>
+    <row r="5" spans="1:41" s="53" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="J5" s="84"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="135"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="AE5" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="AF5" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AO5" s="128"/>
+    </row>
+    <row r="6" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:41" s="62" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="C7" s="68">
+        <v>112</v>
+      </c>
+      <c r="D7" s="68">
+        <v>106.97</v>
+      </c>
+      <c r="E7" s="77">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F7" s="65">
+        <v>1335</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="65"/>
+      <c r="P7" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AO7" s="129"/>
+    </row>
+    <row r="8" spans="1:41" s="62" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="87"/>
+      <c r="B8" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="68">
+        <v>112</v>
+      </c>
+      <c r="D8" s="68">
+        <v>106.97</v>
+      </c>
+      <c r="E8" s="77">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1335</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="65"/>
+      <c r="P8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="115"/>
+      <c r="AJ8" s="114"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="115"/>
+      <c r="AO8" s="129"/>
+    </row>
+    <row r="9" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="87"/>
+      <c r="B9" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="69">
+        <v>112</v>
+      </c>
+      <c r="D9" s="69">
+        <v>106.97</v>
+      </c>
+      <c r="E9" s="78">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F9" s="57">
+        <v>1335</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="57"/>
+      <c r="P9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="102"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AO9" s="129"/>
+    </row>
+    <row r="10" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="87"/>
+      <c r="B10" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="69">
+        <v>112</v>
+      </c>
+      <c r="D10" s="69">
+        <v>106.97</v>
+      </c>
+      <c r="E10" s="78">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1335</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="57"/>
+      <c r="P10" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V10" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="102"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AO10" s="129"/>
+    </row>
+    <row r="11" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="87"/>
+      <c r="B11" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="69">
+        <v>112</v>
+      </c>
+      <c r="D11" s="69">
+        <v>106.97</v>
+      </c>
+      <c r="E11" s="78">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F11" s="57">
+        <v>1335</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="57"/>
+      <c r="P11" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="63">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="63">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="63">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="101">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AO11" s="129"/>
+    </row>
+    <row r="12" spans="1:41" s="62" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87"/>
+      <c r="B12" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="68">
+        <v>112</v>
+      </c>
+      <c r="D12" s="68">
+        <v>106.97</v>
+      </c>
+      <c r="E12" s="77">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1335</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="64"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="65"/>
+      <c r="P12" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="63">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="63">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="63">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="101">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="115"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AO12" s="129"/>
+    </row>
+    <row r="13" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87"/>
+      <c r="B13" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="69">
+        <v>112</v>
+      </c>
+      <c r="D13" s="69">
+        <v>106.97</v>
+      </c>
+      <c r="E13" s="78">
+        <v>84.633369821487406</v>
+      </c>
+      <c r="F13" s="57">
+        <v>1335</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="59">
+        <v>780478</v>
+      </c>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="56">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="AC13" s="56">
+        <v>0.1502</v>
+      </c>
+      <c r="AD13" s="56">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="AE13" s="93">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="AF13" s="102">
+        <v>0.8014</v>
+      </c>
+      <c r="AH13" s="116">
+        <f>1-AI13</f>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AI13" s="117">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AJ13" s="118">
+        <f>1-AM13</f>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AK13" s="116">
+        <f>1-AL13</f>
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="AL13" s="118">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="AM13" s="119">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AO13" s="129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
+      <c r="AK14" s="111"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="111"/>
+    </row>
+    <row r="15" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="78">
+        <v>85.837372096363296</v>
+      </c>
+      <c r="F15" s="57">
+        <v>1254</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="51" t="s">
+      <c r="H15" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="57"/>
+      <c r="P15" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="102"/>
+      <c r="AH15" s="109"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AO15" s="129"/>
+    </row>
+    <row r="16" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="78">
+        <v>85.837372096363296</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1254</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="57"/>
+      <c r="P16" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y16" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="102"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AO16" s="129"/>
+    </row>
+    <row r="17" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="78">
+        <v>85.837372096363296</v>
+      </c>
+      <c r="F17" s="57">
+        <v>1254</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="59">
+        <v>780449</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V17" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y17" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="102"/>
+      <c r="AH17" s="109"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
+      <c r="AO17" s="129"/>
+    </row>
+    <row r="18" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+    </row>
+    <row r="19" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="78">
+        <v>87.216612526053893</v>
+      </c>
+      <c r="F19" s="57">
+        <v>1556</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="57"/>
+      <c r="P19" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y19" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="102"/>
+      <c r="AH19" s="109"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="109"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AO19" s="129"/>
+    </row>
+    <row r="20" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="78">
+        <v>87.216612526053893</v>
+      </c>
+      <c r="F20" s="57">
+        <v>1556</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="57"/>
+      <c r="P20" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y20" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="102"/>
+      <c r="AH20" s="109"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AO20" s="129"/>
+    </row>
+    <row r="21" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="78">
+        <v>87.216612526053893</v>
+      </c>
+      <c r="F21" s="57">
+        <v>1556</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="59">
+        <v>780475</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T21" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y21" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="102"/>
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="110"/>
+      <c r="AO21" s="129"/>
+    </row>
+    <row r="22" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="111"/>
+      <c r="AJ22" s="111"/>
+      <c r="AK22" s="111"/>
+      <c r="AL22" s="111"/>
+      <c r="AM22" s="111"/>
+    </row>
+    <row r="23" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="78">
+        <v>133.19521880854001</v>
+      </c>
+      <c r="F23" s="57">
+        <v>1420</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="57"/>
+      <c r="P23" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T23" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y23" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="102"/>
+      <c r="AH23" s="109"/>
+      <c r="AI23" s="110"/>
+      <c r="AJ23" s="109"/>
+      <c r="AK23" s="109"/>
+      <c r="AL23" s="110"/>
+      <c r="AM23" s="110"/>
+      <c r="AO23" s="129"/>
+    </row>
+    <row r="24" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="78">
+        <v>133.19521880854001</v>
+      </c>
+      <c r="F24" s="57">
+        <v>1420</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="57"/>
+      <c r="P24" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q24" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T24" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y24" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="102"/>
+      <c r="AH24" s="109"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="109"/>
+      <c r="AK24" s="109"/>
+      <c r="AL24" s="110"/>
+      <c r="AM24" s="110"/>
+      <c r="AO24" s="129"/>
+    </row>
+    <row r="25" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="78">
+        <v>133.19521880854001</v>
+      </c>
+      <c r="F25" s="57">
+        <v>1420</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="59">
+        <v>780476</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T25" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y25" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="102"/>
+      <c r="AH25" s="109"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="109"/>
+      <c r="AK25" s="109"/>
+      <c r="AL25" s="110"/>
+      <c r="AM25" s="110"/>
+      <c r="AO25" s="129"/>
+    </row>
+    <row r="26" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="111"/>
+      <c r="AK26" s="111"/>
+      <c r="AL26" s="111"/>
+      <c r="AM26" s="111"/>
+    </row>
+    <row r="27" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="78">
+        <v>110.805906037388</v>
+      </c>
+      <c r="F27" s="57">
+        <v>1772</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="57"/>
+      <c r="P27" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q27" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S27" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y27" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="102"/>
+      <c r="AH27" s="109"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="109"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="110"/>
+      <c r="AO27" s="129"/>
+    </row>
+    <row r="28" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="78">
+        <v>110.805906037388</v>
+      </c>
+      <c r="F28" s="57">
+        <v>1772</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="57"/>
+      <c r="P28" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S28" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T28" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V28" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y28" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="102"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="109"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AO28" s="129"/>
+    </row>
+    <row r="29" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="78">
+        <v>110.805906037388</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1772</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="59">
+        <v>780477</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T29" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V29" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y29" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="102"/>
+      <c r="AH29" s="109"/>
+      <c r="AI29" s="110"/>
+      <c r="AJ29" s="109"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="110"/>
+      <c r="AM29" s="110"/>
+      <c r="AO29" s="129"/>
+    </row>
+    <row r="30" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="111"/>
+    </row>
+    <row r="31" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="78">
+        <v>135.67036501245201</v>
+      </c>
+      <c r="F31" s="57">
+        <v>2388</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="57"/>
+      <c r="P31" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T31" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V31" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y31" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="102"/>
+      <c r="AH31" s="109"/>
+      <c r="AI31" s="110"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="110"/>
+      <c r="AM31" s="110"/>
+      <c r="AO31" s="129"/>
+    </row>
+    <row r="32" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:29" s="64" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="66">
-        <v>1335</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="78">
+        <v>135.67036501245201</v>
+      </c>
+      <c r="F32" s="57">
+        <v>2388</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="57"/>
+      <c r="P32" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V32" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y32" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="102"/>
+      <c r="AH32" s="109"/>
+      <c r="AI32" s="110"/>
+      <c r="AJ32" s="109"/>
+      <c r="AK32" s="109"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="110"/>
+      <c r="AO32" s="129"/>
+    </row>
+    <row r="33" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="78">
+        <v>135.67036501245201</v>
+      </c>
+      <c r="F33" s="57">
+        <v>2388</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="59">
+        <v>780427</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q33" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S33" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T33" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V33" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y33" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="102"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="110"/>
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AO33" s="129"/>
+    </row>
+    <row r="34" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="111"/>
+      <c r="AJ34" s="111"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="111"/>
+    </row>
+    <row r="35" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="78">
+        <v>167.75829982058201</v>
+      </c>
+      <c r="F35" s="57">
+        <v>1648</v>
+      </c>
+      <c r="G35" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="I4" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="65" t="s">
+      <c r="H35" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="59"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="57"/>
+      <c r="P35" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T35" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y35" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="102"/>
+      <c r="AH35" s="109"/>
+      <c r="AI35" s="110"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="110"/>
+      <c r="AM35" s="110"/>
+      <c r="AO35" s="129"/>
+    </row>
+    <row r="36" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="78">
+        <v>167.75829982058201</v>
+      </c>
+      <c r="F36" s="57">
+        <v>1648</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="57"/>
+      <c r="P36" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T36" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y36" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="102"/>
+      <c r="AH36" s="109"/>
+      <c r="AI36" s="110"/>
+      <c r="AJ36" s="109"/>
+      <c r="AK36" s="109"/>
+      <c r="AL36" s="110"/>
+      <c r="AM36" s="110"/>
+      <c r="AO36" s="129"/>
+    </row>
+    <row r="37" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="78">
+        <v>167.75829982058201</v>
+      </c>
+      <c r="F37" s="57">
+        <v>1648</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="59">
+        <v>780428</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="140">
+        <v>0.17016203703703703</v>
+      </c>
+      <c r="M37" s="138">
+        <v>172</v>
+      </c>
+      <c r="N37" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T37" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y37" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="102"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="110"/>
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="110"/>
+      <c r="AM37" s="110"/>
+      <c r="AO37" s="129"/>
+    </row>
+    <row r="38" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="111"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="111"/>
+    </row>
+    <row r="39" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="78">
+        <v>106.74319765862001</v>
+      </c>
+      <c r="F39" s="57">
+        <v>1326</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="I39" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="57"/>
+      <c r="P39" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q39" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="67" t="s">
+      <c r="S39" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T39" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V39" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y39" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="102"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="110"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="110"/>
+      <c r="AM39" s="110"/>
+      <c r="AO39" s="129"/>
+    </row>
+    <row r="40" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="78">
+        <v>106.74319765862001</v>
+      </c>
+      <c r="F40" s="57">
+        <v>1326</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="57"/>
+      <c r="P40" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q40" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U40" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V40" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y40" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="56"/>
+      <c r="AD40" s="56"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="102"/>
+      <c r="AH40" s="109"/>
+      <c r="AI40" s="110"/>
+      <c r="AJ40" s="109"/>
+      <c r="AK40" s="109"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="110"/>
+      <c r="AO40" s="129"/>
+    </row>
+    <row r="41" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="78">
+        <v>106.74319765862001</v>
+      </c>
+      <c r="F41" s="57">
+        <v>1326</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="59">
+        <v>780431</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="L41" s="140">
+        <v>0.10082175925925926</v>
+      </c>
+      <c r="M41" s="138">
+        <v>105</v>
+      </c>
+      <c r="N41" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="P41" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S41" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V41" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y41" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56"/>
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="102"/>
+      <c r="AH41" s="109"/>
+      <c r="AI41" s="110"/>
+      <c r="AJ41" s="109"/>
+      <c r="AK41" s="109"/>
+      <c r="AL41" s="110"/>
+      <c r="AM41" s="110"/>
+      <c r="AO41" s="129"/>
+    </row>
+    <row r="42" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="AH42" s="111"/>
+      <c r="AI42" s="111"/>
+      <c r="AJ42" s="111"/>
+      <c r="AK42" s="111"/>
+      <c r="AL42" s="111"/>
+      <c r="AM42" s="111"/>
+    </row>
+    <row r="43" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="78">
+        <v>152.20901579005499</v>
+      </c>
+      <c r="F43" s="57">
+        <v>2594</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="57"/>
+      <c r="P43" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="67" t="s">
+      <c r="Q43" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V43" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W43" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y43" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="56"/>
+      <c r="AC43" s="56"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="102"/>
+      <c r="AH43" s="109"/>
+      <c r="AI43" s="110"/>
+      <c r="AJ43" s="109"/>
+      <c r="AK43" s="109"/>
+      <c r="AL43" s="110"/>
+      <c r="AM43" s="110"/>
+      <c r="AO43" s="129"/>
+    </row>
+    <row r="44" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="78">
+        <v>152.20901579005499</v>
+      </c>
+      <c r="F44" s="57">
+        <v>2594</v>
+      </c>
+      <c r="G44" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" s="59"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="57"/>
+      <c r="P44" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V44" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y44" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="93"/>
+      <c r="AF44" s="102"/>
+      <c r="AH44" s="109"/>
+      <c r="AI44" s="110"/>
+      <c r="AJ44" s="109"/>
+      <c r="AK44" s="109"/>
+      <c r="AL44" s="110"/>
+      <c r="AM44" s="110"/>
+      <c r="AO44" s="129"/>
+    </row>
+    <row r="45" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="78">
+        <v>152.20901579005499</v>
+      </c>
+      <c r="F45" s="57">
+        <v>2594</v>
+      </c>
+      <c r="G45" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="59">
+        <v>780432</v>
+      </c>
+      <c r="K45" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="140">
+        <v>0.10512731481481481</v>
+      </c>
+      <c r="M45" s="138">
+        <v>108</v>
+      </c>
+      <c r="N45" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="P45" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q45" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S45" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y45" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="102"/>
+      <c r="AH45" s="109"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="109"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="110"/>
+      <c r="AM45" s="110"/>
+      <c r="AO45" s="129"/>
+    </row>
+    <row r="46" spans="1:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH46" s="111"/>
+      <c r="AI46" s="111"/>
+      <c r="AJ46" s="111"/>
+      <c r="AK46" s="111"/>
+      <c r="AL46" s="111"/>
+      <c r="AM46" s="111"/>
+    </row>
+    <row r="47" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="78">
+        <v>214.73901791258399</v>
+      </c>
+      <c r="F47" s="57">
+        <v>2487</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J47" s="59"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="57"/>
+      <c r="P47" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q47" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S47" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T47" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V47" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y47" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="93"/>
+      <c r="AF47" s="102"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="110"/>
+      <c r="AJ47" s="109"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="110"/>
+      <c r="AM47" s="110"/>
+      <c r="AO47" s="129"/>
+    </row>
+    <row r="48" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="78">
+        <v>214.73901791258399</v>
+      </c>
+      <c r="F48" s="57">
+        <v>2487</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="59"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="57"/>
+      <c r="P48" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S48" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T48" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V48" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y48" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="93"/>
+      <c r="AF48" s="102"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="110"/>
+      <c r="AJ48" s="109"/>
+      <c r="AK48" s="109"/>
+      <c r="AL48" s="110"/>
+      <c r="AM48" s="110"/>
+      <c r="AO48" s="129"/>
+    </row>
+    <row r="49" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="78">
+        <v>214.73901791258399</v>
+      </c>
+      <c r="F49" s="57">
+        <v>2487</v>
+      </c>
+      <c r="G49" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" s="59">
+        <v>780443</v>
+      </c>
+      <c r="K49" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="57"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T49" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V49" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y49" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="93"/>
+      <c r="AF49" s="102"/>
+      <c r="AH49" s="109"/>
+      <c r="AI49" s="110"/>
+      <c r="AJ49" s="109"/>
+      <c r="AK49" s="109"/>
+      <c r="AL49" s="110"/>
+      <c r="AM49" s="110"/>
+      <c r="AO49" s="129"/>
+    </row>
+    <row r="50" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="AH50" s="111"/>
+      <c r="AI50" s="111"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
+      <c r="AL50" s="111"/>
+      <c r="AM50" s="111"/>
+    </row>
+    <row r="51" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="78">
+        <v>18.131550071150102</v>
+      </c>
+      <c r="F51" s="57">
+        <v>430</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51" s="59"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="57"/>
+      <c r="P51" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q51" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S51" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T51" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V51" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W51" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y51" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="102"/>
+      <c r="AH51" s="109"/>
+      <c r="AI51" s="110"/>
+      <c r="AJ51" s="109"/>
+      <c r="AK51" s="109"/>
+      <c r="AL51" s="110"/>
+      <c r="AM51" s="110"/>
+      <c r="AO51" s="129"/>
+    </row>
+    <row r="52" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="78">
+        <v>18.131550071150102</v>
+      </c>
+      <c r="F52" s="57">
+        <v>430</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J52" s="59"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="57"/>
+      <c r="P52" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q52" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S52" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T52" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V52" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y52" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="56"/>
+      <c r="AD52" s="56"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="102"/>
+      <c r="AH52" s="109"/>
+      <c r="AI52" s="110"/>
+      <c r="AJ52" s="109"/>
+      <c r="AK52" s="109"/>
+      <c r="AL52" s="110"/>
+      <c r="AM52" s="110"/>
+      <c r="AO52" s="129"/>
+    </row>
+    <row r="53" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="78">
+        <v>18.131550071150102</v>
+      </c>
+      <c r="F53" s="57">
+        <v>430</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J53" s="59">
+        <v>780444</v>
+      </c>
+      <c r="K53" s="56"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P53" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q53" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S53" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T53" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V53" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y53" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="93"/>
+      <c r="AF53" s="102"/>
+      <c r="AH53" s="109"/>
+      <c r="AI53" s="110"/>
+      <c r="AJ53" s="109"/>
+      <c r="AK53" s="109"/>
+      <c r="AL53" s="110"/>
+      <c r="AM53" s="110"/>
+      <c r="AO53" s="129"/>
+    </row>
+    <row r="54" spans="2:41" s="62" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="73"/>
+      <c r="H54" s="76"/>
+      <c r="J54" s="85"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="AG54" s="97"/>
+      <c r="AH54" s="112"/>
+      <c r="AI54" s="112"/>
+      <c r="AJ54" s="112"/>
+      <c r="AK54" s="112"/>
+      <c r="AL54" s="112"/>
+      <c r="AM54" s="112"/>
+      <c r="AO54" s="126"/>
+    </row>
+    <row r="55" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="78">
+        <v>177.683627274689</v>
+      </c>
+      <c r="F55" s="57">
+        <v>1858</v>
+      </c>
+      <c r="G55" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" s="59"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="57"/>
+      <c r="P55" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q55" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S55" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T55" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V55" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y55" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="93"/>
+      <c r="AF55" s="102"/>
+      <c r="AH55" s="109"/>
+      <c r="AI55" s="110"/>
+      <c r="AJ55" s="109"/>
+      <c r="AK55" s="109"/>
+      <c r="AL55" s="110"/>
+      <c r="AM55" s="110"/>
+      <c r="AO55" s="129"/>
+    </row>
+    <row r="56" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="78">
+        <v>177.683627274689</v>
+      </c>
+      <c r="F56" s="57">
+        <v>1858</v>
+      </c>
+      <c r="G56" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" s="59"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="57"/>
+      <c r="P56" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q56" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S56" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T56" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V56" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W56" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y56" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="56"/>
+      <c r="AC56" s="56"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="93"/>
+      <c r="AF56" s="102"/>
+      <c r="AH56" s="109"/>
+      <c r="AI56" s="110"/>
+      <c r="AJ56" s="109"/>
+      <c r="AK56" s="109"/>
+      <c r="AL56" s="110"/>
+      <c r="AM56" s="110"/>
+      <c r="AO56" s="129"/>
+    </row>
+    <row r="57" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="78">
+        <v>177.683627274689</v>
+      </c>
+      <c r="F57" s="57">
+        <v>1858</v>
+      </c>
+      <c r="G57" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" s="59">
+        <v>780446</v>
+      </c>
+      <c r="K57" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="L57" s="57"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P57" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q57" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S57" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T57" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U57" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V57" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y57" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="56"/>
+      <c r="AC57" s="56"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="93"/>
+      <c r="AF57" s="102"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="110"/>
+      <c r="AJ57" s="109"/>
+      <c r="AK57" s="109"/>
+      <c r="AL57" s="110"/>
+      <c r="AM57" s="110"/>
+      <c r="AO57" s="129"/>
+    </row>
+    <row r="58" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="AH58" s="111"/>
+      <c r="AI58" s="111"/>
+      <c r="AJ58" s="111"/>
+      <c r="AK58" s="111"/>
+      <c r="AL58" s="111"/>
+      <c r="AM58" s="111"/>
+    </row>
+    <row r="59" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="78">
+        <v>41.1093269995661</v>
+      </c>
+      <c r="F59" s="57">
+        <v>902</v>
+      </c>
+      <c r="G59" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="59"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="57"/>
+      <c r="P59" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q59" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S59" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T59" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U59" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V59" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W59" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y59" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="56"/>
+      <c r="AC59" s="56"/>
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="93"/>
+      <c r="AF59" s="102"/>
+      <c r="AH59" s="109"/>
+      <c r="AI59" s="110"/>
+      <c r="AJ59" s="109"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="110"/>
+      <c r="AM59" s="110"/>
+      <c r="AO59" s="129"/>
+    </row>
+    <row r="60" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="78">
+        <v>41.1093269995661</v>
+      </c>
+      <c r="F60" s="57">
+        <v>902</v>
+      </c>
+      <c r="G60" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" s="59"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="57"/>
+      <c r="P60" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q60" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S60" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T60" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V60" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y60" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="56"/>
+      <c r="AC60" s="56"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="93"/>
+      <c r="AF60" s="102"/>
+      <c r="AH60" s="109"/>
+      <c r="AI60" s="110"/>
+      <c r="AJ60" s="109"/>
+      <c r="AK60" s="109"/>
+      <c r="AL60" s="110"/>
+      <c r="AM60" s="110"/>
+      <c r="AO60" s="129"/>
+    </row>
+    <row r="61" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="78">
+        <v>41.1093269995661</v>
+      </c>
+      <c r="F61" s="57">
+        <v>902</v>
+      </c>
+      <c r="G61" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="59">
+        <v>780447</v>
+      </c>
+      <c r="K61" s="56"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P61" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q61" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S61" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T61" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U61" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V61" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y61" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="56"/>
+      <c r="AC61" s="56"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="93"/>
+      <c r="AF61" s="102"/>
+      <c r="AH61" s="109"/>
+      <c r="AI61" s="110"/>
+      <c r="AJ61" s="109"/>
+      <c r="AK61" s="109"/>
+      <c r="AL61" s="110"/>
+      <c r="AM61" s="110"/>
+      <c r="AO61" s="129"/>
+    </row>
+    <row r="62" spans="2:41" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH62" s="111"/>
+      <c r="AI62" s="111"/>
+      <c r="AJ62" s="111"/>
+      <c r="AK62" s="111"/>
+      <c r="AL62" s="111"/>
+      <c r="AM62" s="111"/>
+    </row>
+    <row r="63" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="78">
+        <v>130.79627974882899</v>
+      </c>
+      <c r="F63" s="57">
+        <v>1983</v>
+      </c>
+      <c r="G63" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J63" s="59"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="57"/>
+      <c r="P63" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q63" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S63" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T63" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U63" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="V63" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W63" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y63" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="56"/>
+      <c r="AC63" s="56"/>
+      <c r="AD63" s="56"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="102"/>
+      <c r="AH63" s="109"/>
+      <c r="AI63" s="110"/>
+      <c r="AJ63" s="109"/>
+      <c r="AK63" s="109"/>
+      <c r="AL63" s="110"/>
+      <c r="AM63" s="110"/>
+      <c r="AO63" s="129"/>
+    </row>
+    <row r="64" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="78">
+        <v>130.79627974882899</v>
+      </c>
+      <c r="F64" s="57">
+        <v>1983</v>
+      </c>
+      <c r="G64" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J64" s="59"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="138"/>
+      <c r="N64" s="57"/>
+      <c r="P64" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q64" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S64" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T64" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U64" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="V64" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y64" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="56"/>
+      <c r="AC64" s="56"/>
+      <c r="AD64" s="56"/>
+      <c r="AE64" s="93"/>
+      <c r="AF64" s="102"/>
+      <c r="AH64" s="109"/>
+      <c r="AI64" s="110"/>
+      <c r="AJ64" s="109"/>
+      <c r="AK64" s="109"/>
+      <c r="AL64" s="110"/>
+      <c r="AM64" s="110"/>
+      <c r="AO64" s="129"/>
+    </row>
+    <row r="65" spans="2:41" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="78">
+        <v>130.79627974882899</v>
+      </c>
+      <c r="F65" s="57">
+        <v>1983</v>
+      </c>
+      <c r="G65" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I65" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J65" s="59">
+        <v>780448</v>
+      </c>
+      <c r="K65" s="56"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="138"/>
+      <c r="N65" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P65" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q65" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="S65" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T65" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U65" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="V65" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y65" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="93"/>
+      <c r="AF65" s="102"/>
+      <c r="AH65" s="109"/>
+      <c r="AI65" s="110"/>
+      <c r="AJ65" s="109"/>
+      <c r="AK65" s="109"/>
+      <c r="AL65" s="110"/>
+      <c r="AM65" s="110"/>
+      <c r="AO65" s="129"/>
+    </row>
+    <row r="67" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N67" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="U67" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="AB67" s="86">
+        <f>AVERAGE(AB11,AB15,AB19,AB23,AB27,AB31,AB35,AB39,AB43,AB47,AB51,AB55,AB59,AB63)</f>
+        <v>1</v>
+      </c>
+      <c r="AC67" s="86">
+        <f t="shared" ref="AC67:AF67" si="0">AVERAGE(AC11,AC15,AC19,AC23,AC27,AC31,AC35,AC39,AC43,AC47,AC51,AC55,AC59,AC63)</f>
+        <v>1</v>
+      </c>
+      <c r="AD67" s="86">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE67" s="94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF67" s="103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG67" s="98"/>
+      <c r="AH67" s="113"/>
+      <c r="AI67" s="113"/>
+      <c r="AJ67" s="113"/>
+      <c r="AK67" s="113"/>
+      <c r="AL67" s="113"/>
+      <c r="AM67" s="113"/>
+    </row>
+    <row r="68" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="U68" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="AB68" s="86">
+        <f t="shared" ref="AB68:AF68" si="1">AVERAGE(AB12,AB16,AB20,AB24,AB28,AB32,AB36,AB40,AB44,AB48,AB52,AB56,AB60,AB64)</f>
+        <v>1</v>
+      </c>
+      <c r="AC68" s="86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD68" s="86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE68" s="94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF68" s="103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG68" s="98"/>
+      <c r="AH68" s="113"/>
+      <c r="AI68" s="113"/>
+      <c r="AJ68" s="113"/>
+      <c r="AK68" s="113"/>
+      <c r="AL68" s="113"/>
+      <c r="AM68" s="113"/>
+    </row>
+    <row r="69" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N69" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U69" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="AB69" s="79">
+        <f>AVERAGE(AB13,AB17,AB21,AB25,AB29,AB33,AB37,AB41,AB45,AB49,AB53,AB57,AB61,AB65)</f>
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="AC69" s="79">
+        <f t="shared" ref="AC69:AF69" si="2">AVERAGE(AC13,AC17,AC21,AC25,AC29,AC33,AC37,AC41,AC45,AC49,AC53,AC57,AC61,AC65)</f>
+        <v>0.1502</v>
+      </c>
+      <c r="AD69" s="79">
+        <f t="shared" si="2"/>
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="AE69" s="95">
+        <f t="shared" si="2"/>
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="AF69" s="99">
+        <f t="shared" si="2"/>
+        <v>0.8014</v>
+      </c>
+      <c r="AG69" s="89"/>
+      <c r="AH69" s="120">
+        <f>AVERAGE(AH13,AH17,AH21,AH25,AH29,AH33,AH37,AH41,AH45,AH49,AH53,AH57,AH61,AH65)</f>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AI69" s="120">
+        <f t="shared" ref="AI69" si="3">AVERAGE(AI13,AI17,AI21,AI25,AI29,AI33,AI37,AI41,AI45,AI49,AI53,AI57,AI61,AI65)</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="AJ69" s="120">
+        <f>MAX(AJ13,AJ17,AJ21,AJ25,AJ29,AJ33,AJ37,AJ41,AJ45,AJ49,AJ53,AJ57,AJ61,AJ65)</f>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AK69" s="120">
+        <f>MIN(AK13,AK17,AK21,AK25,AK29,AK33,AK37,AK41,AK45,AK49,AK53,AK57,AK61,AK65)</f>
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="AL69" s="120">
+        <f>MAX(AL13,AL17,AL21,AL25,AL29,AL33,AL37,AL41,AL45,AL49,AL53,AL57,AL61,AL65)</f>
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="AM69" s="120">
+        <f>MIN(AM13,AM17,AM21,AM25,AM29,AM33,AM37,AM41,AM45,AM49,AM53,AM57,AM61,AM65)</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="W70" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+      <c r="Z70" s="81"/>
+      <c r="AA70" s="81"/>
+      <c r="AB70" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AC4" s="65"/>
-    </row>
-    <row r="5" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:29" s="70" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="69"/>
-      <c r="I6" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AC6" s="69"/>
-    </row>
-    <row r="7" spans="1:29" s="64" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="66">
-        <v>1335</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="I7" s="65" t="s">
+      <c r="AC70" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AC7" s="65"/>
-    </row>
-    <row r="8" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="I9" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="T9" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AC9" s="65"/>
-    </row>
-    <row r="10" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="I10" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AC10" s="65"/>
-    </row>
-    <row r="11" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="I11" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AC11" s="65"/>
-    </row>
-    <row r="12" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="I12" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AC12" s="65"/>
-    </row>
-    <row r="13" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="I13" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O13" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="R13" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AC13" s="65"/>
-    </row>
-    <row r="14" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="60">
-        <v>1335</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="I14" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AC14" s="65"/>
-    </row>
-    <row r="15" spans="1:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="T16" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AC16" s="65"/>
-    </row>
-    <row r="17" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="T17" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AC17" s="65"/>
-    </row>
-    <row r="18" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="T18" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AC18" s="65"/>
-    </row>
-    <row r="19" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="T20" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AC20" s="65"/>
-    </row>
-    <row r="21" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="T21" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AC21" s="65"/>
-    </row>
-    <row r="22" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="T22" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AC22" s="65"/>
-    </row>
-    <row r="23" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="T24" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AC24" s="65"/>
-    </row>
-    <row r="25" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="T25" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AC25" s="65"/>
-    </row>
-    <row r="26" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="T26" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AC26" s="65"/>
-    </row>
-    <row r="27" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="T28" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U28" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AC28" s="65"/>
-    </row>
-    <row r="29" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="T29" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U29" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AC29" s="65"/>
-    </row>
-    <row r="30" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="T30" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AC30" s="65"/>
-    </row>
-    <row r="31" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="T32" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U32" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AC32" s="65"/>
-    </row>
-    <row r="33" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="T33" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U33" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AC33" s="65"/>
-    </row>
-    <row r="34" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="T34" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U34" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AC34" s="65"/>
-    </row>
-    <row r="35" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="T36" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U36" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AC36" s="65"/>
-    </row>
-    <row r="37" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="T37" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U37" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AC37" s="65"/>
-    </row>
-    <row r="38" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="T38" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U38" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AC38" s="65"/>
-    </row>
-    <row r="39" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="T40" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U40" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AC40" s="65"/>
-    </row>
-    <row r="41" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="T41" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U41" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AC41" s="65"/>
-    </row>
-    <row r="42" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="T42" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U42" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AC42" s="65"/>
-    </row>
-    <row r="43" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="T44" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U44" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AC44" s="65"/>
-    </row>
-    <row r="45" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="T45" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U45" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="56"/>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56"/>
-      <c r="AC45" s="65"/>
-    </row>
-    <row r="46" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="T46" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U46" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AC46" s="65"/>
-    </row>
-    <row r="47" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="T48" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U48" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="56"/>
-      <c r="Z48" s="56"/>
-      <c r="AA48" s="56"/>
-      <c r="AC48" s="65"/>
-    </row>
-    <row r="49" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="T49" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U49" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AC49" s="65"/>
-    </row>
-    <row r="50" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="T50" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U50" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="56"/>
-      <c r="AC50" s="65"/>
-    </row>
-    <row r="51" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="T52" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U52" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
-      <c r="AC52" s="65"/>
-    </row>
-    <row r="53" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="T53" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U53" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="56"/>
-      <c r="AC53" s="65"/>
-    </row>
-    <row r="54" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="T54" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
-      <c r="AC54" s="65"/>
-    </row>
-    <row r="55" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="T56" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U56" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AC56" s="65"/>
-    </row>
-    <row r="57" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="T57" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U57" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AC57" s="65"/>
-    </row>
-    <row r="58" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="T58" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U58" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AC58" s="65"/>
-    </row>
-    <row r="59" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="T60" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U60" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AC60" s="65"/>
-    </row>
-    <row r="61" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="T61" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U61" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AC61" s="65"/>
-    </row>
-    <row r="62" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="T62" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U62" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AC62" s="65"/>
-    </row>
-    <row r="63" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="T64" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U64" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AC64" s="65"/>
-    </row>
-    <row r="65" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="T65" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U65" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="56"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="56"/>
-      <c r="AC65" s="65"/>
-    </row>
-    <row r="66" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="T66" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U66" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AC66" s="65"/>
-    </row>
-    <row r="67" spans="2:29" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
-      <c r="T68" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U68" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="56"/>
-      <c r="AA68" s="56"/>
-      <c r="AC68" s="65"/>
-    </row>
-    <row r="69" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
-      <c r="T69" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="U69" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="56"/>
-      <c r="Z69" s="56"/>
-      <c r="AA69" s="56"/>
-      <c r="AC69" s="65"/>
-    </row>
-    <row r="70" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="T70" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="U70" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AC70" s="65"/>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="S71" s="61"/>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="S72" s="61"/>
+      <c r="AD70" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="AE70" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="AF70" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="AG70" s="90"/>
+    </row>
+    <row r="71" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N71" s="123" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="AB7:AB13 AB15:AB17 AB19:AB21 AB23:AB25 AB27:AB29 AB31:AB33 AB35:AB37 AB39:AB41 AB43:AB45 AB47:AB49 AB51:AB53 AB55:AB57 AB59:AB61 AB63:AB65">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+      <formula>0.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+      <formula>0.2</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7:AC13 AC15:AC17 AC19:AC21 AC23:AC25 AC27:AC29 AC31:AC33 AC35:AC37 AC39:AC41 AC43:AC45 AC47:AC49 AC51:AC53 AC55:AC57 AC59:AC61 AC63:AC65">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
+      <formula>0.25</formula>
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7:AD13 AD15:AD17 AD19:AD21 AD23:AD25 AD27:AD29 AD31:AD33 AD35:AD37 AD39:AD41 AD43:AD45 AD47:AD49 AD51:AD53 AD55:AD57 AD59:AD61 AD63:AD65">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThanOrEqual">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7:AE10 AE13">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
+      <formula>0.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11:AE12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7:AF13 AE15:AF17 AE19:AF21 AE23:AF25 AE27:AF29 AE31:AF33 AE35:AF37 AE39:AF41 AE43:AF45 AE47:AF49 AE51:AF53 AE55:AF57 AE59:AF61 AE63:AF65">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThanOrEqual">
+      <formula>0.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>